--- a/master_data/App Admin UV-WCS.xlsx
+++ b/master_data/App Admin UV-WCS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mouserelec-my.sharepoint.com/personal/rethin_silvester_mouser_com/Documents/Desktop/WCS/Imp Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="13_ncr:1_{9BC06223-E303-487D-AD17-EA97DFF74849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{729AE477-2D1C-4681-B3E0-29620853EAFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4CAF51-2D7A-47A5-97C9-66FF7240D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -3958,7 +3958,7 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
